--- a/old_image/condition.xlsx
+++ b/old_image/condition.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="307">
   <si>
     <t>Path</t>
   </si>
@@ -752,10 +752,14 @@
     <t>Condition.asserter</t>
   </si>
   <si>
-    <t>Person who asserts this condition</t>
-  </si>
-  <si>
-    <t>Individual who is making the condition statement.</t>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|Device)
+</t>
+  </si>
+  <si>
+    <t>Person or device that asserts this condition</t>
+  </si>
+  <si>
+    <t>Individual or device that is making the condition statement.</t>
   </si>
   <si>
     <t>REL-7.1 identifier + REL-7.12 type code</t>
@@ -3882,13 +3886,13 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3960,13 +3964,13 @@
         <v>42</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>42</v>
@@ -3974,7 +3978,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3997,13 +4001,13 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4054,7 +4058,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4066,7 +4070,7 @@
         <v>42</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>42</v>
@@ -4078,7 +4082,7 @@
         <v>42</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>42</v>
@@ -4089,7 +4093,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4112,13 +4116,13 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4169,7 +4173,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4193,7 +4197,7 @@
         <v>42</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>42</v>
@@ -4204,7 +4208,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4233,7 +4237,7 @@
         <v>99</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>101</v>
@@ -4286,7 +4290,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4310,7 +4314,7 @@
         <v>42</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>42</v>
@@ -4321,11 +4325,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4347,10 +4351,10 @@
         <v>98</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>101</v>
@@ -4405,7 +4409,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4440,7 +4444,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4466,10 +4470,10 @@
         <v>118</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4499,10 +4503,10 @@
         <v>167</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
@@ -4520,7 +4524,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4529,7 +4533,7 @@
         <v>53</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>42</v>
@@ -4538,7 +4542,7 @@
         <v>42</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>128</v>
@@ -4555,7 +4559,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4578,13 +4582,13 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4635,7 +4639,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -4644,7 +4648,7 @@
         <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>42</v>
@@ -4659,7 +4663,7 @@
         <v>42</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>42</v>
@@ -4670,7 +4674,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4696,10 +4700,10 @@
         <v>118</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4729,10 +4733,10 @@
         <v>167</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -4750,7 +4754,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -4774,7 +4778,7 @@
         <v>42</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>42</v>
@@ -4785,7 +4789,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4808,16 +4812,16 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4867,7 +4871,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -4879,7 +4883,7 @@
         <v>42</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>42</v>
@@ -4891,7 +4895,7 @@
         <v>42</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>42</v>
@@ -4902,7 +4906,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4925,13 +4929,13 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4982,7 +4986,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5006,7 +5010,7 @@
         <v>42</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>42</v>
@@ -5017,7 +5021,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5046,7 +5050,7 @@
         <v>99</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>101</v>
@@ -5099,7 +5103,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5123,7 +5127,7 @@
         <v>42</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>42</v>
@@ -5134,11 +5138,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5160,10 +5164,10 @@
         <v>98</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>101</v>
@@ -5218,7 +5222,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5253,7 +5257,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5279,10 +5283,10 @@
         <v>118</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5312,10 +5316,10 @@
         <v>167</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5333,7 +5337,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5342,13 +5346,13 @@
         <v>44</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>148</v>
@@ -5357,10 +5361,10 @@
         <v>42</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>42</v>
@@ -5368,7 +5372,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5391,13 +5395,13 @@
         <v>54</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5448,7 +5452,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5457,7 +5461,7 @@
         <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>42</v>
@@ -5472,10 +5476,10 @@
         <v>42</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>42</v>
@@ -5483,7 +5487,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5506,13 +5510,13 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5563,7 +5567,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5578,16 +5582,16 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>42</v>
